--- a/Traduccion/excels/Core/Trad PHB.xlsx
+++ b/Traduccion/excels/Core/Trad PHB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\JAVA\Proyectos\5etoolsEsp\Traduccion\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A383EEE-954F-4C5A-A484-2E2FC795E2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1D3530-E12E-4D29-AE0A-89D7D5045E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -16850,7 +16850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -17729,8 +17729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18277,8 +18277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:D197"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19931,8 +19931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Traduccion/excels/Core/Trad PHB.xlsx
+++ b/Traduccion/excels/Core/Trad PHB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\JAVA\Proyectos\5etoolsEsp\Traduccion\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1D3530-E12E-4D29-AE0A-89D7D5045E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73720D1C-8D05-4309-B915-01C5F81D6F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -9947,8 +9947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:D362"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B326" sqref="B326"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="B362" sqref="B362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9971,250 +9971,250 @@
     </row>
     <row r="2" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1197</v>
+        <v>807</v>
       </c>
       <c r="C2" t="s">
-        <v>1196</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1151</v>
+        <v>809</v>
       </c>
       <c r="C3" t="s">
-        <v>1150</v>
+        <v>808</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1012</v>
+        <v>811</v>
       </c>
       <c r="C4" t="s">
-        <v>1011</v>
+        <v>810</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1396</v>
+        <v>813</v>
       </c>
       <c r="C5" t="s">
-        <v>1395</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>1038</v>
+        <v>815</v>
       </c>
       <c r="C6" t="s">
-        <v>1037</v>
+        <v>814</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="C7" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1305</v>
+        <v>819</v>
       </c>
       <c r="C8" t="s">
-        <v>1304</v>
+        <v>818</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="C9" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>1271</v>
+        <v>823</v>
       </c>
       <c r="C10" t="s">
-        <v>1270</v>
+        <v>822</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>1345</v>
+        <v>825</v>
       </c>
       <c r="C11" t="s">
-        <v>1344</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>1106</v>
+        <v>827</v>
       </c>
       <c r="C12" t="s">
-        <v>1105</v>
+        <v>826</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="C13" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="C14" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C15" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>1383</v>
+        <v>835</v>
       </c>
       <c r="C16" t="s">
-        <v>1382</v>
+        <v>834</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>1034</v>
+        <v>837</v>
       </c>
       <c r="C17" t="s">
-        <v>1033</v>
+        <v>836</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>1424</v>
+        <v>839</v>
       </c>
       <c r="C18" t="s">
-        <v>1423</v>
+        <v>838</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>1235</v>
+        <v>841</v>
       </c>
       <c r="C19" t="s">
-        <v>1234</v>
+        <v>840</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="C20" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>1222</v>
+        <v>845</v>
       </c>
       <c r="C21" t="s">
-        <v>1223</v>
+        <v>844</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>1301</v>
+        <v>847</v>
       </c>
       <c r="C22" t="s">
-        <v>1300</v>
+        <v>846</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="C23" t="s">
-        <v>818</v>
+        <v>848</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>1307</v>
+        <v>851</v>
       </c>
       <c r="C24" t="s">
-        <v>1306</v>
+        <v>850</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="C25" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="C26" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="C27" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="C28" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>1287</v>
+        <v>861</v>
       </c>
       <c r="C29" t="s">
-        <v>1286</v>
+        <v>860</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>1171</v>
+        <v>863</v>
       </c>
       <c r="C30" t="s">
-        <v>1170</v>
+        <v>862</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>809</v>
+        <v>865</v>
       </c>
       <c r="C31" t="s">
-        <v>808</v>
+        <v>864</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>1293</v>
+        <v>867</v>
       </c>
       <c r="C32" t="s">
-        <v>1292</v>
+        <v>866</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -10227,882 +10227,882 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>872</v>
+        <v>2621</v>
       </c>
       <c r="C34" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>1233</v>
+        <v>872</v>
       </c>
       <c r="C35" t="s">
-        <v>1232</v>
+        <v>871</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>1084</v>
+        <v>874</v>
       </c>
       <c r="C36" t="s">
-        <v>1083</v>
+        <v>873</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>986</v>
+        <v>876</v>
       </c>
       <c r="C37" t="s">
-        <v>985</v>
+        <v>875</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>839</v>
+        <v>878</v>
       </c>
       <c r="C38" t="s">
-        <v>838</v>
+        <v>877</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>1123</v>
+        <v>880</v>
       </c>
       <c r="C39" t="s">
-        <v>1122</v>
+        <v>879</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>1487</v>
+        <v>882</v>
       </c>
       <c r="C40" t="s">
-        <v>1486</v>
+        <v>881</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>1062</v>
+        <v>884</v>
       </c>
       <c r="C41" t="s">
-        <v>1061</v>
+        <v>883</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>1157</v>
+        <v>886</v>
       </c>
       <c r="C42" t="s">
-        <v>1156</v>
+        <v>885</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C43" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>1389</v>
+        <v>890</v>
       </c>
       <c r="C44" t="s">
-        <v>1388</v>
+        <v>889</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>1503</v>
+        <v>892</v>
       </c>
       <c r="C45" t="s">
-        <v>1502</v>
+        <v>891</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>827</v>
+        <v>894</v>
       </c>
       <c r="C46" t="s">
-        <v>826</v>
+        <v>893</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>825</v>
+        <v>896</v>
       </c>
       <c r="C47" t="s">
-        <v>824</v>
+        <v>895</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>1442</v>
+        <v>898</v>
       </c>
       <c r="C48" t="s">
-        <v>1441</v>
+        <v>897</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>1379</v>
+        <v>900</v>
       </c>
       <c r="C49" t="s">
-        <v>1378</v>
+        <v>899</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>1426</v>
+        <v>902</v>
       </c>
       <c r="C50" t="s">
-        <v>1425</v>
+        <v>901</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>1462</v>
+        <v>904</v>
       </c>
       <c r="C51" t="s">
-        <v>1461</v>
+        <v>903</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>876</v>
+        <v>906</v>
       </c>
       <c r="C52" t="s">
-        <v>875</v>
+        <v>905</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>855</v>
+        <v>908</v>
       </c>
       <c r="C53" t="s">
-        <v>854</v>
+        <v>907</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>1519</v>
+        <v>910</v>
       </c>
       <c r="C54" t="s">
-        <v>1518</v>
+        <v>909</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
       <c r="C55" t="s">
-        <v>883</v>
+        <v>911</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>1185</v>
+        <v>914</v>
       </c>
       <c r="C56" t="s">
-        <v>1184</v>
+        <v>913</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>835</v>
+        <v>916</v>
       </c>
       <c r="C57" t="s">
-        <v>834</v>
+        <v>915</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>900</v>
+        <v>918</v>
       </c>
       <c r="C58" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
       <c r="C59" t="s">
-        <v>901</v>
+        <v>919</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>1454</v>
+        <v>922</v>
       </c>
       <c r="C60" t="s">
-        <v>1453</v>
+        <v>921</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>1227</v>
+        <v>924</v>
       </c>
       <c r="C61" t="s">
-        <v>1226</v>
+        <v>923</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>904</v>
+        <v>926</v>
       </c>
       <c r="C62" t="s">
-        <v>903</v>
+        <v>925</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>906</v>
+        <v>928</v>
       </c>
       <c r="C63" t="s">
-        <v>905</v>
+        <v>927</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>1201</v>
+        <v>930</v>
       </c>
       <c r="C64" t="s">
-        <v>1200</v>
+        <v>929</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="C65" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="C66" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="C67" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="C68" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="C69" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="C70" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="C71" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="C72" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="C73" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="C74" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
       <c r="C75" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="C76" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>926</v>
+        <v>956</v>
       </c>
       <c r="C77" t="s">
-        <v>925</v>
+        <v>955</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>1199</v>
+        <v>958</v>
       </c>
       <c r="C78" t="s">
-        <v>1198</v>
+        <v>957</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>1145</v>
+        <v>960</v>
       </c>
       <c r="C79" t="s">
-        <v>1144</v>
+        <v>959</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="C80" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="C81" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>950</v>
+        <v>966</v>
       </c>
       <c r="C82" t="s">
-        <v>949</v>
+        <v>965</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>882</v>
+        <v>968</v>
       </c>
       <c r="C83" t="s">
-        <v>881</v>
+        <v>967</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="C84" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>954</v>
+        <v>972</v>
       </c>
       <c r="C85" t="s">
-        <v>953</v>
+        <v>971</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>956</v>
+        <v>974</v>
       </c>
       <c r="C86" t="s">
-        <v>955</v>
+        <v>973</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>1303</v>
+        <v>976</v>
       </c>
       <c r="C87" t="s">
-        <v>1302</v>
+        <v>975</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>958</v>
+        <v>978</v>
       </c>
       <c r="C88" t="s">
-        <v>957</v>
+        <v>977</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="C89" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>968</v>
+        <v>982</v>
       </c>
       <c r="C90" t="s">
-        <v>967</v>
+        <v>981</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>962</v>
+        <v>984</v>
       </c>
       <c r="C91" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>1331</v>
+        <v>986</v>
       </c>
       <c r="C92" t="s">
-        <v>1330</v>
+        <v>985</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>966</v>
+        <v>988</v>
       </c>
       <c r="C93" t="s">
-        <v>965</v>
+        <v>987</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>964</v>
+        <v>990</v>
       </c>
       <c r="C94" t="s">
-        <v>963</v>
+        <v>989</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>1420</v>
+        <v>992</v>
       </c>
       <c r="C95" t="s">
-        <v>1419</v>
+        <v>991</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>1311</v>
+        <v>994</v>
       </c>
       <c r="C96" t="s">
-        <v>1310</v>
+        <v>993</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>1153</v>
+        <v>996</v>
       </c>
       <c r="C97" t="s">
-        <v>1152</v>
+        <v>995</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>1241</v>
+        <v>998</v>
       </c>
       <c r="C98" t="s">
-        <v>1240</v>
+        <v>997</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>974</v>
+        <v>1000</v>
       </c>
       <c r="C99" t="s">
-        <v>973</v>
+        <v>999</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>1239</v>
+        <v>1002</v>
       </c>
       <c r="C100" t="s">
-        <v>1238</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>1149</v>
+        <v>1004</v>
       </c>
       <c r="C101" t="s">
-        <v>1148</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>1092</v>
+        <v>1006</v>
       </c>
       <c r="C102" t="s">
-        <v>1091</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>1076</v>
+        <v>1008</v>
       </c>
       <c r="C103" t="s">
-        <v>1075</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>1078</v>
+        <v>1010</v>
       </c>
       <c r="C104" t="s">
-        <v>1077</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>1032</v>
+        <v>1012</v>
       </c>
       <c r="C105" t="s">
-        <v>1031</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>1513</v>
+        <v>1014</v>
       </c>
       <c r="C106" t="s">
-        <v>1512</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="C107" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>851</v>
+        <v>1018</v>
       </c>
       <c r="C108" t="s">
-        <v>850</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>880</v>
+        <v>1020</v>
       </c>
       <c r="C109" t="s">
-        <v>879</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>1309</v>
+        <v>1022</v>
       </c>
       <c r="C110" t="s">
-        <v>1308</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>857</v>
+        <v>1024</v>
       </c>
       <c r="C111" t="s">
-        <v>856</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="C112" t="s">
-        <v>991</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>994</v>
+        <v>1028</v>
       </c>
       <c r="C113" t="s">
-        <v>993</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>998</v>
+        <v>1030</v>
       </c>
       <c r="C114" t="s">
-        <v>997</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>1074</v>
+        <v>1032</v>
       </c>
       <c r="C115" t="s">
-        <v>1073</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>996</v>
+        <v>1034</v>
       </c>
       <c r="C116" t="s">
-        <v>995</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>1456</v>
+        <v>1036</v>
       </c>
       <c r="C117" t="s">
-        <v>1455</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>1002</v>
+        <v>1038</v>
       </c>
       <c r="C118" t="s">
-        <v>1001</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>1006</v>
+        <v>1040</v>
       </c>
       <c r="C119" t="s">
-        <v>1005</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>1008</v>
+        <v>1042</v>
       </c>
       <c r="C120" t="s">
-        <v>1007</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>1018</v>
+        <v>1044</v>
       </c>
       <c r="C121" t="s">
-        <v>1017</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>1020</v>
+        <v>1046</v>
       </c>
       <c r="C122" t="s">
-        <v>1019</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>1022</v>
+        <v>1048</v>
       </c>
       <c r="C123" t="s">
-        <v>1021</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>1468</v>
+        <v>1050</v>
       </c>
       <c r="C124" t="s">
-        <v>1467</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>1404</v>
+        <v>1052</v>
       </c>
       <c r="C125" t="s">
-        <v>1403</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>920</v>
+        <v>1054</v>
       </c>
       <c r="C126" t="s">
-        <v>919</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>1113</v>
+        <v>1056</v>
       </c>
       <c r="C127" t="s">
-        <v>1112</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>972</v>
+        <v>1057</v>
       </c>
       <c r="C128" t="s">
-        <v>971</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>1044</v>
+        <v>1060</v>
       </c>
       <c r="C129" t="s">
-        <v>1043</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>815</v>
+        <v>1062</v>
       </c>
       <c r="C130" t="s">
-        <v>814</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="C131" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C132" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>1267</v>
+        <v>1068</v>
       </c>
       <c r="C133" t="s">
-        <v>1266</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>1347</v>
+        <v>1070</v>
       </c>
       <c r="C134" t="s">
-        <v>1346</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>1042</v>
+        <v>1072</v>
       </c>
       <c r="C135" t="s">
-        <v>1041</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>1125</v>
+        <v>1074</v>
       </c>
       <c r="C136" t="s">
-        <v>1124</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>1026</v>
+        <v>1076</v>
       </c>
       <c r="C137" t="s">
-        <v>1025</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>922</v>
+        <v>1078</v>
       </c>
       <c r="C138" t="s">
-        <v>921</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>669</v>
+        <v>1080</v>
       </c>
       <c r="C139" t="s">
-        <v>668</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>1393</v>
+        <v>1082</v>
       </c>
       <c r="C140" t="s">
-        <v>1392</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="C141" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>1377</v>
+        <v>1086</v>
       </c>
       <c r="C142" t="s">
-        <v>1376</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>1289</v>
+        <v>1088</v>
       </c>
       <c r="C143" t="s">
-        <v>1288</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
@@ -11115,410 +11115,410 @@
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>1291</v>
+        <v>1092</v>
       </c>
       <c r="C145" t="s">
-        <v>1290</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>1281</v>
+        <v>1094</v>
       </c>
       <c r="C146" t="s">
-        <v>1280</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>1263</v>
+        <v>1096</v>
       </c>
       <c r="C147" t="s">
-        <v>1262</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>1422</v>
+        <v>1098</v>
       </c>
       <c r="C148" t="s">
-        <v>1421</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>1046</v>
+        <v>1100</v>
       </c>
       <c r="C149" t="s">
-        <v>1045</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>1440</v>
+        <v>1102</v>
       </c>
       <c r="C150" t="s">
-        <v>1439</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>1054</v>
+        <v>1104</v>
       </c>
       <c r="C151" t="s">
-        <v>1053</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>1057</v>
+        <v>1106</v>
       </c>
       <c r="C152" t="s">
-        <v>1058</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>1014</v>
+        <v>1108</v>
       </c>
       <c r="C153" t="s">
-        <v>1013</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>1161</v>
+        <v>1110</v>
       </c>
       <c r="C154" t="s">
-        <v>1160</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>1066</v>
+        <v>1111</v>
       </c>
       <c r="C155" t="s">
-        <v>1065</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>1251</v>
+        <v>1113</v>
       </c>
       <c r="C156" t="s">
-        <v>1250</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>1211</v>
+        <v>1115</v>
       </c>
       <c r="C157" t="s">
-        <v>1210</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>1108</v>
+        <v>1117</v>
       </c>
       <c r="C158" t="s">
-        <v>1107</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>1056</v>
+        <v>1119</v>
       </c>
       <c r="C159" t="s">
-        <v>1055</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>1299</v>
+        <v>1121</v>
       </c>
       <c r="C160" t="s">
-        <v>1298</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>1249</v>
+        <v>1123</v>
       </c>
       <c r="C161" t="s">
-        <v>1248</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>1111</v>
+        <v>1125</v>
       </c>
       <c r="C162" t="s">
-        <v>1111</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="C163" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="C164" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>1040</v>
+        <v>1131</v>
       </c>
       <c r="C165" t="s">
-        <v>1039</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>1088</v>
+        <v>1133</v>
       </c>
       <c r="C166" t="s">
-        <v>1087</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="C167" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>984</v>
+        <v>1137</v>
       </c>
       <c r="C168" t="s">
-        <v>983</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>2621</v>
+        <v>1139</v>
       </c>
       <c r="C169" t="s">
-        <v>870</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="C170" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>1133</v>
+        <v>1143</v>
       </c>
       <c r="C171" t="s">
-        <v>1132</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="C172" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>1416</v>
+        <v>1147</v>
       </c>
       <c r="C173" t="s">
-        <v>1415</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>1412</v>
+        <v>1149</v>
       </c>
       <c r="C174" t="s">
-        <v>1411</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>1414</v>
+        <v>1151</v>
       </c>
       <c r="C175" t="s">
-        <v>1413</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>1391</v>
+        <v>1153</v>
       </c>
       <c r="C176" t="s">
-        <v>1390</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>1070</v>
+        <v>1155</v>
       </c>
       <c r="C177" t="s">
-        <v>1069</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="C178" t="s">
-        <v>1172</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>894</v>
+        <v>1159</v>
       </c>
       <c r="C179" t="s">
-        <v>893</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C180" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>1086</v>
+        <v>1163</v>
       </c>
       <c r="C181" t="s">
-        <v>1085</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>1181</v>
+        <v>1165</v>
       </c>
       <c r="C182" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>1261</v>
+        <v>1167</v>
       </c>
       <c r="C183" t="s">
-        <v>1260</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>1333</v>
+        <v>1168</v>
       </c>
       <c r="C184" t="s">
-        <v>1332</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>1237</v>
+        <v>1171</v>
       </c>
       <c r="C185" t="s">
-        <v>1236</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>1265</v>
+        <v>1173</v>
       </c>
       <c r="C186" t="s">
-        <v>1264</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>1400</v>
+        <v>1175</v>
       </c>
       <c r="C187" t="s">
-        <v>1399</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>1480</v>
+        <v>1177</v>
       </c>
       <c r="C188" t="s">
-        <v>1479</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>865</v>
+        <v>1179</v>
       </c>
       <c r="C189" t="s">
-        <v>864</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>1285</v>
+        <v>1181</v>
       </c>
       <c r="C190" t="s">
-        <v>1284</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="C191" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>1167</v>
+        <v>1185</v>
       </c>
       <c r="C192" t="s">
-        <v>1166</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>1168</v>
+        <v>1187</v>
       </c>
       <c r="C193" t="s">
-        <v>1169</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>1115</v>
+        <v>1189</v>
       </c>
       <c r="C194" t="s">
-        <v>1114</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>1365</v>
+        <v>1191</v>
       </c>
       <c r="C195" t="s">
-        <v>1364</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
@@ -11531,762 +11531,762 @@
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>1129</v>
+        <v>1195</v>
       </c>
       <c r="C197" t="s">
-        <v>1128</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>1024</v>
+        <v>1197</v>
       </c>
       <c r="C198" t="s">
-        <v>1023</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>1100</v>
+        <v>1199</v>
       </c>
       <c r="C199" t="s">
-        <v>1099</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>1247</v>
+        <v>1201</v>
       </c>
       <c r="C200" t="s">
-        <v>1246</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>1117</v>
+        <v>1203</v>
       </c>
       <c r="C201" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>1460</v>
+        <v>1205</v>
       </c>
       <c r="C202" t="s">
-        <v>1459</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>1359</v>
+        <v>1207</v>
       </c>
       <c r="C203" t="s">
-        <v>1358</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C204" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>1104</v>
+        <v>1211</v>
       </c>
       <c r="C205" t="s">
-        <v>1103</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>952</v>
+        <v>1213</v>
       </c>
       <c r="C206" t="s">
-        <v>951</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>1371</v>
+        <v>1215</v>
       </c>
       <c r="C207" t="s">
-        <v>1370</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>888</v>
+        <v>1217</v>
       </c>
       <c r="C208" t="s">
-        <v>887</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="C209" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="C210" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="C211" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>976</v>
+        <v>1225</v>
       </c>
       <c r="C212" t="s">
-        <v>975</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>1209</v>
+        <v>1227</v>
       </c>
       <c r="C213" t="s">
-        <v>1208</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>982</v>
+        <v>1229</v>
       </c>
       <c r="C214" t="s">
-        <v>981</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>1052</v>
+        <v>1231</v>
       </c>
       <c r="C215" t="s">
-        <v>1051</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>1165</v>
+        <v>1233</v>
       </c>
       <c r="C216" t="s">
-        <v>1164</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>867</v>
+        <v>1235</v>
       </c>
       <c r="C217" t="s">
-        <v>866</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>1225</v>
+        <v>1237</v>
       </c>
       <c r="C218" t="s">
-        <v>1224</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>886</v>
+        <v>1239</v>
       </c>
       <c r="C219" t="s">
-        <v>885</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>1277</v>
+        <v>1241</v>
       </c>
       <c r="C220" t="s">
-        <v>1276</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>1175</v>
+        <v>1243</v>
       </c>
       <c r="C221" t="s">
-        <v>1174</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>874</v>
+        <v>1245</v>
       </c>
       <c r="C222" t="s">
-        <v>873</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>1275</v>
+        <v>1247</v>
       </c>
       <c r="C223" t="s">
-        <v>1274</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="C224" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>817</v>
+        <v>1251</v>
       </c>
       <c r="C225" t="s">
-        <v>816</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="C226" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>1430</v>
+        <v>1255</v>
       </c>
       <c r="C227" t="s">
-        <v>1429</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>1283</v>
+        <v>1257</v>
       </c>
       <c r="C228" t="s">
-        <v>1282</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>1497</v>
+        <v>1259</v>
       </c>
       <c r="C229" t="s">
-        <v>1496</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>1489</v>
+        <v>1261</v>
       </c>
       <c r="C230" t="s">
-        <v>1488</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>1491</v>
+        <v>1263</v>
       </c>
       <c r="C231" t="s">
-        <v>1490</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>1493</v>
+        <v>1265</v>
       </c>
       <c r="C232" t="s">
-        <v>1492</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>1495</v>
+        <v>1267</v>
       </c>
       <c r="C233" t="s">
-        <v>1494</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>1511</v>
+        <v>1269</v>
       </c>
       <c r="C234" t="s">
-        <v>1510</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>1329</v>
+        <v>1271</v>
       </c>
       <c r="C235" t="s">
-        <v>1328</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>910</v>
+        <v>1273</v>
       </c>
       <c r="C236" t="s">
-        <v>909</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>1428</v>
+        <v>1275</v>
       </c>
       <c r="C237" t="s">
-        <v>1427</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>908</v>
+        <v>1277</v>
       </c>
       <c r="C238" t="s">
-        <v>907</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>1096</v>
+        <v>1279</v>
       </c>
       <c r="C239" t="s">
-        <v>1095</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>1187</v>
+        <v>1281</v>
       </c>
       <c r="C240" t="s">
-        <v>1186</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>831</v>
+        <v>1283</v>
       </c>
       <c r="C241" t="s">
-        <v>830</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>1464</v>
+        <v>1285</v>
       </c>
       <c r="C242" t="s">
-        <v>1463</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>990</v>
+        <v>1287</v>
       </c>
       <c r="C243" t="s">
-        <v>989</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>898</v>
+        <v>1289</v>
       </c>
       <c r="C244" t="s">
-        <v>897</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>914</v>
+        <v>1291</v>
       </c>
       <c r="C245" t="s">
-        <v>913</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>978</v>
+        <v>1293</v>
       </c>
       <c r="C246" t="s">
-        <v>977</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>1155</v>
+        <v>1295</v>
       </c>
       <c r="C247" t="s">
-        <v>1154</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>1243</v>
+        <v>1297</v>
       </c>
       <c r="C248" t="s">
-        <v>1242</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>1321</v>
+        <v>1299</v>
       </c>
       <c r="C249" t="s">
-        <v>1320</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>1319</v>
+        <v>1301</v>
       </c>
       <c r="C250" t="s">
-        <v>1318</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>1317</v>
+        <v>1303</v>
       </c>
       <c r="C251" t="s">
-        <v>1316</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>1517</v>
+        <v>1305</v>
       </c>
       <c r="C252" t="s">
-        <v>1516</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>1016</v>
+        <v>1307</v>
       </c>
       <c r="C253" t="s">
-        <v>1015</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>1466</v>
+        <v>1309</v>
       </c>
       <c r="C254" t="s">
-        <v>1465</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>1297</v>
+        <v>1311</v>
       </c>
       <c r="C255" t="s">
-        <v>1296</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>1295</v>
+        <v>1313</v>
       </c>
       <c r="C256" t="s">
-        <v>1294</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>1472</v>
+        <v>1315</v>
       </c>
       <c r="C257" t="s">
-        <v>1471</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>1269</v>
+        <v>1317</v>
       </c>
       <c r="C258" t="s">
-        <v>1268</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>1177</v>
+        <v>1319</v>
       </c>
       <c r="C259" t="s">
-        <v>1176</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>1203</v>
+        <v>1321</v>
       </c>
       <c r="C260" t="s">
-        <v>1202</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>853</v>
+        <v>1323</v>
       </c>
       <c r="C261" t="s">
-        <v>852</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>1410</v>
+        <v>1325</v>
       </c>
       <c r="C262" t="s">
-        <v>1409</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>1432</v>
+        <v>1327</v>
       </c>
       <c r="C263" t="s">
-        <v>1431</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>859</v>
+        <v>1329</v>
       </c>
       <c r="C264" t="s">
-        <v>858</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>1191</v>
+        <v>1331</v>
       </c>
       <c r="C265" t="s">
-        <v>1190</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>1323</v>
+        <v>1333</v>
       </c>
       <c r="C266" t="s">
-        <v>1322</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>1315</v>
+        <v>1335</v>
       </c>
       <c r="C267" t="s">
-        <v>1314</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>1474</v>
+        <v>1337</v>
       </c>
       <c r="C268" t="s">
-        <v>1473</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>1110</v>
+        <v>1339</v>
       </c>
       <c r="C269" t="s">
-        <v>1109</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>1036</v>
+        <v>1341</v>
       </c>
       <c r="C270" t="s">
-        <v>1035</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>1102</v>
+        <v>1343</v>
       </c>
       <c r="C271" t="s">
-        <v>1101</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>1325</v>
+        <v>1345</v>
       </c>
       <c r="C272" t="s">
-        <v>1324</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>1098</v>
+        <v>1347</v>
       </c>
       <c r="C273" t="s">
-        <v>1097</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>1339</v>
+        <v>1349</v>
       </c>
       <c r="C274" t="s">
-        <v>1338</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>1337</v>
+        <v>1351</v>
       </c>
       <c r="C275" t="s">
-        <v>1336</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
       <c r="C276" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>841</v>
+        <v>1355</v>
       </c>
       <c r="C277" t="s">
-        <v>840</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>1335</v>
+        <v>1357</v>
       </c>
       <c r="C278" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>1231</v>
+        <v>1359</v>
       </c>
       <c r="C279" t="s">
-        <v>1230</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>833</v>
+        <v>1361</v>
       </c>
       <c r="C280" t="s">
-        <v>832</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>1000</v>
+        <v>1363</v>
       </c>
       <c r="C281" t="s">
-        <v>999</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="C282" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>1141</v>
+        <v>1367</v>
       </c>
       <c r="C283" t="s">
-        <v>1140</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>1408</v>
+        <v>1369</v>
       </c>
       <c r="C284" t="s">
-        <v>1407</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C285" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>1351</v>
+        <v>1373</v>
       </c>
       <c r="C286" t="s">
-        <v>1350</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>1515</v>
+        <v>1375</v>
       </c>
       <c r="C287" t="s">
-        <v>1514</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>1273</v>
+        <v>1377</v>
       </c>
       <c r="C288" t="s">
-        <v>1272</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>1349</v>
+        <v>1379</v>
       </c>
       <c r="C289" t="s">
-        <v>1348</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>1353</v>
+        <v>1381</v>
       </c>
       <c r="C290" t="s">
-        <v>1352</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>1438</v>
+        <v>1383</v>
       </c>
       <c r="C291" t="s">
-        <v>1437</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
@@ -12307,546 +12307,546 @@
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>1357</v>
+        <v>1389</v>
       </c>
       <c r="C294" t="s">
-        <v>1356</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>1355</v>
+        <v>1391</v>
       </c>
       <c r="C295" t="s">
-        <v>1354</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>1213</v>
+        <v>669</v>
       </c>
       <c r="C296" t="s">
-        <v>1212</v>
+        <v>668</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>892</v>
+        <v>1393</v>
       </c>
       <c r="C297" t="s">
-        <v>891</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>1253</v>
+        <v>1394</v>
       </c>
       <c r="C298" t="s">
-        <v>1252</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>1159</v>
+        <v>1396</v>
       </c>
       <c r="C299" t="s">
-        <v>1158</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>1361</v>
+        <v>1398</v>
       </c>
       <c r="C300" t="s">
-        <v>1360</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>1501</v>
+        <v>1400</v>
       </c>
       <c r="C301" t="s">
-        <v>1500</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>1131</v>
+        <v>1402</v>
       </c>
       <c r="C302" t="s">
-        <v>1130</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>1205</v>
+        <v>1404</v>
       </c>
       <c r="C303" t="s">
-        <v>1204</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>1363</v>
+        <v>1406</v>
       </c>
       <c r="C304" t="s">
-        <v>1362</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>1476</v>
+        <v>1408</v>
       </c>
       <c r="C305" t="s">
-        <v>1475</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>1050</v>
+        <v>1410</v>
       </c>
       <c r="C306" t="s">
-        <v>1049</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>1367</v>
+        <v>1412</v>
       </c>
       <c r="C307" t="s">
-        <v>1366</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>1446</v>
+        <v>1414</v>
       </c>
       <c r="C308" t="s">
-        <v>1445</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>912</v>
+        <v>1416</v>
       </c>
       <c r="C309" t="s">
-        <v>911</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>1327</v>
+        <v>1418</v>
       </c>
       <c r="C310" t="s">
-        <v>1326</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>1313</v>
+        <v>1420</v>
       </c>
       <c r="C311" t="s">
-        <v>1312</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>1064</v>
+        <v>1422</v>
       </c>
       <c r="C312" t="s">
-        <v>1063</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>1028</v>
+        <v>1424</v>
       </c>
       <c r="C313" t="s">
-        <v>1027</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>1139</v>
+        <v>1426</v>
       </c>
       <c r="C314" t="s">
-        <v>1138</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>807</v>
+        <v>1428</v>
       </c>
       <c r="C315" t="s">
-        <v>806</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>1195</v>
+        <v>1430</v>
       </c>
       <c r="C316" t="s">
-        <v>1194</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>1279</v>
+        <v>1432</v>
       </c>
       <c r="C317" t="s">
-        <v>1278</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>1373</v>
+        <v>1434</v>
       </c>
       <c r="C318" t="s">
-        <v>1372</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>988</v>
+        <v>1436</v>
       </c>
       <c r="C319" t="s">
-        <v>987</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>863</v>
+        <v>1438</v>
       </c>
       <c r="C320" t="s">
-        <v>862</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>861</v>
+        <v>1440</v>
       </c>
       <c r="C321" t="s">
-        <v>860</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>1394</v>
+        <v>1442</v>
       </c>
       <c r="C322" t="s">
-        <v>1394</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>1398</v>
+        <v>1444</v>
       </c>
       <c r="C323" t="s">
-        <v>1397</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="C324" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>1402</v>
+        <v>1448</v>
       </c>
       <c r="C325" t="s">
-        <v>1401</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>1483</v>
+        <v>1450</v>
       </c>
       <c r="C326" t="s">
-        <v>1482</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>878</v>
+        <v>1452</v>
       </c>
       <c r="C327" t="s">
-        <v>877</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>1436</v>
+        <v>1454</v>
       </c>
       <c r="C328" t="s">
-        <v>1435</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>1245</v>
+        <v>1456</v>
       </c>
       <c r="C329" t="s">
-        <v>1244</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>1010</v>
+        <v>1458</v>
       </c>
       <c r="C330" t="s">
-        <v>1009</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="C331" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>1505</v>
+        <v>1462</v>
       </c>
       <c r="C332" t="s">
-        <v>1504</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>1450</v>
+        <v>1464</v>
       </c>
       <c r="C333" t="s">
-        <v>1449</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>1448</v>
+        <v>1466</v>
       </c>
       <c r="C334" t="s">
-        <v>1447</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>1452</v>
+        <v>1468</v>
       </c>
       <c r="C335" t="s">
-        <v>1451</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>1048</v>
+        <v>1470</v>
       </c>
       <c r="C336" t="s">
-        <v>1047</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>1030</v>
+        <v>1472</v>
       </c>
       <c r="C337" t="s">
-        <v>1029</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>1147</v>
+        <v>1474</v>
       </c>
       <c r="C338" t="s">
-        <v>1146</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>1060</v>
+        <v>1476</v>
       </c>
       <c r="C339" t="s">
-        <v>1059</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>1507</v>
+        <v>1478</v>
       </c>
       <c r="C340" t="s">
-        <v>1506</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>1183</v>
+        <v>1480</v>
       </c>
       <c r="C341" t="s">
-        <v>1182</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>896</v>
+        <v>1481</v>
       </c>
       <c r="C342" t="s">
-        <v>895</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C343" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>1406</v>
+        <v>1485</v>
       </c>
       <c r="C344" t="s">
-        <v>1405</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>1143</v>
+        <v>1487</v>
       </c>
       <c r="C345" t="s">
-        <v>1142</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>1082</v>
+        <v>1489</v>
       </c>
       <c r="C346" t="s">
-        <v>1081</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>1179</v>
+        <v>1491</v>
       </c>
       <c r="C347" t="s">
-        <v>1178</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>1434</v>
+        <v>1493</v>
       </c>
       <c r="C348" t="s">
-        <v>1433</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>1257</v>
+        <v>1495</v>
       </c>
       <c r="C349" t="s">
-        <v>1256</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>1418</v>
+        <v>1497</v>
       </c>
       <c r="C350" t="s">
-        <v>1417</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>1369</v>
+        <v>1499</v>
       </c>
       <c r="C351" t="s">
-        <v>1368</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>1481</v>
+        <v>1501</v>
       </c>
       <c r="C352" t="s">
-        <v>1481</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>1229</v>
+        <v>1503</v>
       </c>
       <c r="C353" t="s">
-        <v>1228</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>1381</v>
+        <v>1505</v>
       </c>
       <c r="C354" t="s">
-        <v>1380</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="C355" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>1470</v>
+        <v>1509</v>
       </c>
       <c r="C356" t="s">
-        <v>1469</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>1499</v>
+        <v>1511</v>
       </c>
       <c r="C357" t="s">
-        <v>1498</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>980</v>
+        <v>1513</v>
       </c>
       <c r="C358" t="s">
-        <v>979</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>1478</v>
+        <v>1515</v>
       </c>
       <c r="C359" t="s">
-        <v>1477</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>1094</v>
+        <v>1517</v>
       </c>
       <c r="C360" t="s">
-        <v>1093</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>1221</v>
+        <v>1519</v>
       </c>
       <c r="C361" t="s">
-        <v>1220</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
@@ -12860,7 +12860,7 @@
   </sheetData>
   <autoFilter ref="B1:C362" xr:uid="{00000000-0009-0000-0000-00000B000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C362">
-      <sortCondition ref="B1:B362"/>
+      <sortCondition ref="C1:C362"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19931,7 +19931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/Traduccion/excels/Core/Trad PHB.xlsx
+++ b/Traduccion/excels/Core/Trad PHB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\JAVA\Proyectos\5etoolsEsp\Traduccion\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73720D1C-8D05-4309-B915-01C5F81D6F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC7B731-1DB0-42AE-BF8E-F07C0445F810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -9947,7 +9947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:D362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+    <sheetView topLeftCell="A340" workbookViewId="0">
       <selection activeCell="B362" sqref="B362"/>
     </sheetView>
   </sheetViews>
@@ -9969,7 +9969,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>807</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>825</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>829</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>853</v>
       </c>
@@ -19877,8 +19877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Traduccion/excels/Core/Trad PHB.xlsx
+++ b/Traduccion/excels/Core/Trad PHB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\JAVA\Proyectos\5etoolsEsp\Traduccion\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC7B731-1DB0-42AE-BF8E-F07C0445F810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00D636C-6AA2-426D-B136-7013C62A12DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -8062,9 +8062,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8102,9 +8102,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8137,26 +8137,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8189,26 +8172,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -15987,8 +15953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B2:X38"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19877,7 +19843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Traduccion/excels/Core/Trad PHB.xlsx
+++ b/Traduccion/excels/Core/Trad PHB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\JAVA\Proyectos\5etoolsEsp\Traduccion\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00D636C-6AA2-426D-B136-7013C62A12DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4265D97E-7694-4E70-9003-1C5E2A5E761D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12838,7 +12838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:AV12"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="AE1" workbookViewId="0">
       <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
@@ -14375,7 +14375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B2:AV55"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="AG1" workbookViewId="0">
       <selection activeCell="AU32" sqref="AU32"/>
     </sheetView>
   </sheetViews>
@@ -15953,8 +15953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B2:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
